--- a/Design/QA_ClothesStore_SRS.xlsx
+++ b/Design/QA_ClothesStore_SRS.xlsx
@@ -104,7 +104,7 @@
 The password with email/phone number both match the database.</t>
   </si>
   <si>
-    <t>OCS_Client_Reg-01</t>
+    <t>OCS_Client_Signup-01</t>
   </si>
   <si>
     <t xml:space="preserve">Clients create a new account by providing:
@@ -119,10 +119,10 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">The client create an account in the store by providing:
- Email (as per Requirement OCS_Client_Reg-03), 
- phone number (as per Requirement OCS_Client_Reg-04), 
- Password (as per Requirement OCS_Client_Reg-05), 
- Confirm password (as per Requirement OCS_Client_Reg-06), </t>
+ Email (as per Requirement OCS_Client_Signup-03), 
+ phone number (as per Requirement OCS_Client_Signup-04), 
+ Password (as per Requirement OCS_Client_Signup-05), 
+ Confirm password (as per Requirement OCS_Client_Signup-06), </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> 
- Username (as per Requirement OCS_Client_Reg-07).
+ Username (as per Requirement OCS_Client_Signup-07).
 The client's information will be saved in the store's database,
 So, After successful Account creation, 
  The client will receive a confirmation message stating
@@ -149,7 +149,7 @@
     </r>
   </si>
   <si>
-    <t>OCS_Client_Reg-02</t>
+    <t>OCS_Client_Signup-02</t>
   </si>
   <si>
     <r>
@@ -159,10 +159,10 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">The client create an account in the store by providing: 
- Email (not as per Requirement OCS_Client_Reg-03), 
- phone number (not as Requirement per OCS_Client_Reg-04), 
- Password (not as per Requirement OCS_Client_Reg-05), 
- Confirmed password (not as per Requirement OCS_Client_Reg-06), </t>
+ Email (not as per Requirement OCS_Client_Signup-03), 
+ phone number (not as Requirement per OCS_Client_Signup-04), 
+ Password (not as per Requirement OCS_Client_Signup-05), 
+ Confirmed password (not as per Requirement OCS_Client_Signup-06), </t>
     </r>
     <r>
       <rPr>
@@ -180,25 +180,25 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
- Username (not as per Requirement OCS_Client_Reg-07).
+ Username (not as per Requirement OCS_Client_Signup-07).
  The client information will not be saved to the store's database,
 So client will receive an error message ["Please, check your information and try again"].</t>
     </r>
   </si>
   <si>
-    <t>OCS_Client_Reg-03</t>
+    <t>OCS_Client_Signup-03</t>
   </si>
   <si>
     <t>Valid Email should follow the format (example@mail.com).</t>
   </si>
   <si>
-    <t>OCS_Client_Reg-04</t>
+    <t>OCS_Client_Signup-04</t>
   </si>
   <si>
     <t>The phone number shall Accept exactly 11 digits, starting with '01', and followed by the remaining digits.</t>
   </si>
   <si>
-    <t>OCS_Client_Reg-05</t>
+    <t>OCS_Client_Signup-05</t>
   </si>
   <si>
     <t>The password shall Accept a minimum of 8 characters and must contain at least
@@ -207,13 +207,13 @@
 3- one numerical digit.</t>
   </si>
   <si>
-    <t>OCS_Client_Reg-06</t>
+    <t>OCS_Client_Signup-06</t>
   </si>
   <si>
     <t>The confirm Password should match the entered password.</t>
   </si>
   <si>
-    <t>OCS_Client_Reg-07</t>
+    <t>OCS_Client_Signup-07</t>
   </si>
   <si>
     <t>The username shall Accept alphanumeric characters, allowing a maximum of 20 characters.</t>
@@ -561,14 +561,14 @@
     </r>
   </si>
   <si>
-    <t>OCS_Admin_View_ClientTransHis-05</t>
+    <t>OCS_Admin_View_ClientsTransHis-05</t>
   </si>
   <si>
-    <t>Admin view client transaction history.</t>
+    <t>Admin view clients transactions history.</t>
   </si>
   <si>
-    <t>The admin access any client account in the store, and 
- He see the history of previous transactions 
+    <t>The admin see all clients account in the store, and 
+ He see the history of their previous transactions 
  The system will display by providing: 
   Date of transaction,
   Product names,

--- a/Design/QA_ClothesStore_SRS.xlsx
+++ b/Design/QA_ClothesStore_SRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merna Files\ITI_Sw testing and QA\QA\Project\Phases\QA_Workshop_ClothesStore\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C60BEC5-1CF1-45D7-AAB8-8B69793AE504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7BBB25-546E-4FBC-A45D-A9DEF5139AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
@@ -545,12 +545,6 @@
  Redirect to the home feature. </t>
   </si>
   <si>
-    <t>The Admin log in by providing:
-  E-mail (not as per Requirement OCS_Login-07) or
-  Password (not as per Requirement OCS_Login-08). 
-The system will display an error message "Email or Password".</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Admin log in by providing:
  E-mail (as per Requirement OCS_Login-07) with
  password (as per Requirement OCS_Login-08).
@@ -558,23 +552,11 @@
  Redirect to the home feature. </t>
   </si>
   <si>
-    <t>The client log in by providing:
-  E-mail (not as per Requirement OCS_Login-07) or
-  Password (not as per Requirement OCS_Login-08). 
-The system will display an error message "Email or Password".</t>
-  </si>
-  <si>
     <t xml:space="preserve">The client  log in by providing:
  E-mail (as per Requirement OCS_Login-07) with
  password (as per Requirement OCS_Login-08).
 The system will display the message "Successful Login", and
  Redirect to the home feature. </t>
-  </si>
-  <si>
-    <t>The Supplier log in by providing:
-  E-mail (not as per Requirement OCS_Login-07) or
-  Password (not as per Requirement OCS_Login-08). 
-The system will display an error message "Email or Password".</t>
   </si>
   <si>
     <t>OCS_Admin_Signup-03</t>
@@ -756,6 +738,24 @@
   that the account has been created successfully ["Your Account has been created successfully"], and 
    He will be redirected to the home feature (as per Requirement Home-01).</t>
     </r>
+  </si>
+  <si>
+    <t>The client log in by providing:
+  E-mail (not as per Requirement OCS_Login-07) or
+  Password (not as per Requirement OCS_Login-08). 
+The system will display an error message "Invalid Email or Password".</t>
+  </si>
+  <si>
+    <t>The Admin log in by providing:
+  E-mail (not as per Requirement OCS_Login-07) or
+  Password (not as per Requirement OCS_Login-08). 
+The system will display an error message "Invalid Email or Password".</t>
+  </si>
+  <si>
+    <t>The Supplier log in by providing:
+  E-mail (not as per Requirement OCS_Login-07) or
+  Password (not as per Requirement OCS_Login-08). 
+The system will display an error message "Invalid Email or Password".</t>
   </si>
 </sst>
 </file>
@@ -1046,14 +1046,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1067,17 +1067,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,8 +1299,8 @@
   </sheetPr>
   <dimension ref="A1:AA1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="52" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1515,11 +1515,11 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
@@ -1550,9 +1550,9 @@
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="35" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
@@ -1612,11 +1612,11 @@
       <c r="A10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
@@ -1647,9 +1647,9 @@
       <c r="A11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="35" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
@@ -1709,7 +1709,7 @@
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="35" t="s">
@@ -1744,9 +1744,9 @@
       <c r="A14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="35" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
@@ -1903,7 +1903,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
@@ -1965,11 +1965,11 @@
     </row>
     <row r="21" spans="1:27" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
@@ -1998,11 +1998,11 @@
     </row>
     <row r="22" spans="1:27" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
@@ -2031,11 +2031,11 @@
     </row>
     <row r="23" spans="1:27" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
@@ -2064,11 +2064,11 @@
     </row>
     <row r="24" spans="1:27" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="13"/>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="27" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="13" t="s">
@@ -2192,7 +2192,7 @@
     </row>
     <row r="28" spans="1:27" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="35" t="s">
@@ -2225,7 +2225,7 @@
     </row>
     <row r="29" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="13" t="s">
@@ -2258,7 +2258,7 @@
     </row>
     <row r="30" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B30" s="40"/>
       <c r="C30" s="13" t="s">
@@ -2353,7 +2353,7 @@
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
     </row>
-    <row r="33" spans="1:27" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:27" s="38" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:27" ht="173.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>25</v>
@@ -2649,12 +2649,12 @@
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
     </row>
-    <row r="43" spans="1:27" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:27" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:27" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="35" t="s">
@@ -2718,12 +2718,12 @@
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
     </row>
-    <row r="46" spans="1:27" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:27" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:27" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="35" t="s">
@@ -2787,12 +2787,12 @@
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
     </row>
-    <row r="49" spans="1:27" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:27" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:27" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="39" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="35" t="s">
@@ -2856,12 +2856,12 @@
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
     </row>
-    <row r="52" spans="1:27" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:27" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:27" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="35" t="s">
@@ -2925,12 +2925,12 @@
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
     </row>
-    <row r="55" spans="1:27" s="38" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:27" s="47" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:27" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="35" t="s">
@@ -2994,7 +2994,7 @@
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
     </row>
-    <row r="58" spans="1:27" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:27" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:27" ht="214.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>62</v>
@@ -3030,9 +3030,9 @@
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
     </row>
-    <row r="60" spans="1:27" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:27" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:27" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="48" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -3132,7 +3132,7 @@
       <c r="Z63" s="13"/>
       <c r="AA63" s="13"/>
     </row>
-    <row r="64" spans="1:27" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:27" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
@@ -31170,19 +31170,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A46:XFD46"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A33:XFD33"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="A64:XFD64"/>
     <mergeCell ref="A58:XFD58"/>
     <mergeCell ref="A55:XFD55"/>
@@ -31193,6 +31180,19 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A46:XFD46"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A33:XFD33"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Design/QA_ClothesStore_SRS.xlsx
+++ b/Design/QA_ClothesStore_SRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merna Files\ITI_Sw testing and QA\QA\Project\Phases\QA_Workshop_ClothesStore\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7BBB25-546E-4FBC-A45D-A9DEF5139AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F61349-F2EE-455F-A82B-3E250B612BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>The email must be in the database (match any email in the database).</t>
-  </si>
-  <si>
-    <t>The password must be in the database, and
-The password with email/phone number both match the database.</t>
   </si>
   <si>
     <t>OCS_Client_Signup-01</t>
@@ -757,6 +753,10 @@
   Password (not as per Requirement OCS_Login-08). 
 The system will display an error message "Invalid Email or Password".</t>
   </si>
+  <si>
+    <t>The password must be in the database, and
+The password with email both match the database.</t>
+  </si>
 </sst>
 </file>
 
@@ -1046,16 +1046,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1070,14 +1076,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,8 +1299,8 @@
   </sheetPr>
   <dimension ref="A1:AA1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1350,7 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="40"/>
@@ -1383,10 +1383,10 @@
       <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>72</v>
+      <c r="B3" s="44" t="s">
+        <v>71</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1416,10 +1416,10 @@
       <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1515,11 +1515,11 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>73</v>
+      <c r="B7" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
@@ -1550,9 +1550,9 @@
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
@@ -1610,13 +1610,13 @@
     </row>
     <row r="10" spans="1:27" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>81</v>
+      <c r="B10" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
@@ -1645,11 +1645,11 @@
     </row>
     <row r="11" spans="1:27" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="13" spans="1:27" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>86</v>
+      <c r="B13" s="48" t="s">
+        <v>85</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
@@ -1742,11 +1742,11 @@
     </row>
     <row r="14" spans="1:27" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>12</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="17" spans="1:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="13"/>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="19" spans="1:27" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>15</v>
-      </c>
       <c r="C19" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
@@ -1932,11 +1932,11 @@
     </row>
     <row r="20" spans="1:27" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
@@ -1965,11 +1965,11 @@
     </row>
     <row r="21" spans="1:27" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
@@ -1998,11 +1998,11 @@
     </row>
     <row r="22" spans="1:27" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
@@ -2031,11 +2031,11 @@
     </row>
     <row r="23" spans="1:27" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
@@ -2064,11 +2064,11 @@
     </row>
     <row r="24" spans="1:27" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="13"/>
@@ -2126,11 +2126,11 @@
     </row>
     <row r="26" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="13"/>
@@ -2159,11 +2159,11 @@
     </row>
     <row r="27" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -2192,11 +2192,11 @@
     </row>
     <row r="28" spans="1:27" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -2225,11 +2225,11 @@
     </row>
     <row r="29" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -2258,11 +2258,11 @@
     </row>
     <row r="30" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="40"/>
       <c r="C30" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -2320,13 +2320,13 @@
     </row>
     <row r="32" spans="1:27" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="C32" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="13"/>
@@ -2353,16 +2353,16 @@
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
     </row>
-    <row r="33" spans="1:27" s="38" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:27" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:27" ht="173.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="C34" s="31" t="s">
         <v>26</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>27</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="26"/>
@@ -2420,11 +2420,11 @@
     </row>
     <row r="36" spans="1:27" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -2453,11 +2453,11 @@
     </row>
     <row r="37" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -2486,11 +2486,11 @@
     </row>
     <row r="38" spans="1:27" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -2519,11 +2519,11 @@
     </row>
     <row r="39" spans="1:27" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -2552,11 +2552,11 @@
     </row>
     <row r="40" spans="1:27" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -2585,11 +2585,11 @@
     </row>
     <row r="41" spans="1:27" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="40"/>
       <c r="C41" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2618,11 +2618,11 @@
     </row>
     <row r="42" spans="1:27" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="40"/>
       <c r="C42" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -2649,16 +2649,16 @@
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
     </row>
-    <row r="43" spans="1:27" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:27" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:27" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="C44" s="35" t="s">
         <v>42</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>43</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -2687,11 +2687,11 @@
     </row>
     <row r="45" spans="1:27" ht="226.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -2718,16 +2718,16 @@
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
     </row>
-    <row r="46" spans="1:27" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:27" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:27" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="C47" s="35" t="s">
         <v>46</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>47</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -2756,11 +2756,11 @@
     </row>
     <row r="48" spans="1:27" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="40"/>
       <c r="C48" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -2787,16 +2787,16 @@
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
     </row>
-    <row r="49" spans="1:27" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:27" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:27" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="C50" s="35" t="s">
         <v>51</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>52</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -2825,11 +2825,11 @@
     </row>
     <row r="51" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="40"/>
       <c r="C51" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -2856,16 +2856,16 @@
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
     </row>
-    <row r="52" spans="1:27" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:27" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:27" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="C53" s="35" t="s">
         <v>55</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>56</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -2894,11 +2894,11 @@
     </row>
     <row r="54" spans="1:27" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="40"/>
       <c r="C54" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -2925,16 +2925,16 @@
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
     </row>
-    <row r="55" spans="1:27" s="47" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:27" s="38" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:27" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="C56" s="35" t="s">
         <v>59</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>60</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -2963,11 +2963,11 @@
     </row>
     <row r="57" spans="1:27" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="40"/>
       <c r="C57" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -2994,16 +2994,16 @@
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
     </row>
-    <row r="58" spans="1:27" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:27" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:27" ht="214.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="35" t="s">
         <v>63</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>64</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="13"/>
@@ -3030,16 +3030,16 @@
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
     </row>
-    <row r="60" spans="1:27" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:27" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:27" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="13"/>
@@ -3069,10 +3069,10 @@
     <row r="62" spans="1:27" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -3102,10 +3102,10 @@
     <row r="63" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -3132,7 +3132,7 @@
       <c r="Z63" s="13"/>
       <c r="AA63" s="13"/>
     </row>
-    <row r="64" spans="1:27" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:27" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
@@ -31170,6 +31170,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A46:XFD46"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A33:XFD33"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="A64:XFD64"/>
     <mergeCell ref="A58:XFD58"/>
     <mergeCell ref="A55:XFD55"/>
@@ -31180,19 +31193,6 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A46:XFD46"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A33:XFD33"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
